--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.088124747506776</v>
+        <v>-1.245855044786252</v>
       </c>
       <c r="D2">
-        <v>0.2765920805293867</v>
+        <v>0.2213345434467053</v>
       </c>
       <c r="E2">
         <v>0.8543113508596197</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1166507658375971</v>
+        <v>-0.1118515859381203</v>
       </c>
       <c r="D3">
-        <v>0.9071414556345558</v>
+        <v>0.9115988256749008</v>
       </c>
       <c r="E3">
         <v>0.8543113508596197</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.475843640630067</v>
+        <v>2.069143425949857</v>
       </c>
       <c r="D4">
-        <v>0.01332479625135519</v>
+        <v>0.04620214098780884</v>
       </c>
       <c r="E4">
         <v>0.8543113508596197</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.3973233736553726</v>
+        <v>0.4078047655749159</v>
       </c>
       <c r="D5">
-        <v>0.6911458417930407</v>
+        <v>0.6859736425470171</v>
       </c>
       <c r="E5">
         <v>0.8543113508596197</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.835978728422766</v>
+        <v>0.9819764891855218</v>
       </c>
       <c r="D6">
-        <v>0.4032065081462626</v>
+        <v>0.3330478072657197</v>
       </c>
       <c r="E6">
         <v>0.8772085245141105</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>3.3789949216905</v>
+        <v>4.407501941211613</v>
       </c>
       <c r="D7">
-        <v>0.0007330351672660829</v>
+        <v>9.929269700292842E-05</v>
       </c>
       <c r="E7">
         <v>0.8772085245141105</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.370520543760086</v>
+        <v>1.577163185876448</v>
       </c>
       <c r="D8">
-        <v>0.1705855142498278</v>
+        <v>0.1240181071225848</v>
       </c>
       <c r="E8">
         <v>0.8772085245141105</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.403261953385688</v>
+        <v>2.305394427256292</v>
       </c>
       <c r="D9">
-        <v>0.0162854583586316</v>
+        <v>0.02737482591935736</v>
       </c>
       <c r="E9">
         <v>0.8567695266190448</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.5103649339458172</v>
+        <v>0.8371709646527012</v>
       </c>
       <c r="D10">
-        <v>0.609818173841338</v>
+        <v>0.4083426236814005</v>
       </c>
       <c r="E10">
         <v>0.8567695266190448</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.757631422199786</v>
+        <v>-1.982418149785275</v>
       </c>
       <c r="D11">
-        <v>0.07887095682935286</v>
+        <v>0.05556059809184344</v>
       </c>
       <c r="E11">
         <v>0.8037102181310669</v>
